--- a/results/CNN Models/full_dataset/Hybrid_Model/result_for_Hybrid_Model.xlsx
+++ b/results/CNN Models/full_dataset/Hybrid_Model/result_for_Hybrid_Model.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9869791666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.9934469200524246</v>
       </c>
       <c r="E2" t="n">
         <v>379</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4828571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5971731448763251</v>
       </c>
       <c r="E3" t="n">
         <v>350</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E4" t="n">
         <v>73</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.9985401459854014</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.9905865314989138</v>
       </c>
       <c r="E5" t="n">
         <v>685</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.9587155963302753</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.8763102725366876</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9156626506024096</v>
       </c>
       <c r="E7" t="n">
         <v>477</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0348692403486924</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06738868832731648</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E8" t="n">
         <v>84</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.198581560283688</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3218390804597701</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2456140350877193</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2</v>
+        <v>0.583793738489871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005934718100890208</v>
+        <v>0.9406528189910979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01152737752161383</v>
+        <v>0.7204545454545455</v>
       </c>
       <c r="E11" t="n">
         <v>337</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04453125</v>
+        <v>0.86796875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04453125</v>
+        <v>0.86796875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04453125</v>
+        <v>0.86796875</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04453125</v>
+        <v>0.86796875</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04334508006323804</v>
+        <v>0.8737687377661516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.132777379856066</v>
+        <v>0.8042468267718241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03245301009366496</v>
+        <v>0.8242552142366421</v>
       </c>
       <c r="E13" t="n">
         <v>2560</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03422094216170743</v>
+        <v>0.8874148400427682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04453125</v>
+        <v>0.86796875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01207570199098048</v>
+        <v>0.8656267267188238</v>
       </c>
       <c r="E14" t="n">
         <v>2560</v>

--- a/results/CNN Models/full_dataset/Hybrid_Model/result_for_Hybrid_Model.xlsx
+++ b/results/CNN Models/full_dataset/Hybrid_Model/result_for_Hybrid_Model.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9869791666666666</v>
+        <v>0.9585635359116023</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9155672823218998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9934469200524246</v>
+        <v>0.9365721997300944</v>
       </c>
       <c r="E2" t="n">
         <v>379</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7824074074074074</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4828571428571429</v>
+        <v>0.4228571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5971731448763251</v>
+        <v>0.5627376425855514</v>
       </c>
       <c r="E3" t="n">
         <v>350</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7534246575342466</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="E4" t="n">
         <v>73</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.8891786179921773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985401459854014</v>
+        <v>0.9956204379562044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9905865314989138</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="E5" t="n">
         <v>685</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.875</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9587155963302753</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8763102725366876</v>
+        <v>0.8385744234800838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9156626506024096</v>
+        <v>0.848356309650053</v>
       </c>
       <c r="E7" t="n">
         <v>477</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9879518072289156</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E8" t="n">
         <v>84</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6781609195402298</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7160493827160493</v>
+        <v>0.6178010471204188</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.583793738489871</v>
+        <v>0.7071428571428572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9406528189910979</v>
+        <v>0.8813056379821959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7204545454545455</v>
+        <v>0.7846763540290621</v>
       </c>
       <c r="E11" t="n">
         <v>337</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.86796875</v>
+        <v>0.833203125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86796875</v>
+        <v>0.833203125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86796875</v>
+        <v>0.833203125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.86796875</v>
+        <v>0.833203125</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8737687377661516</v>
+        <v>0.7786636652500853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8042468267718241</v>
+        <v>0.7872879684008428</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8242552142366421</v>
+        <v>0.772865567769472</v>
       </c>
       <c r="E13" t="n">
         <v>2560</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8874148400427682</v>
+        <v>0.8396842009025421</v>
       </c>
       <c r="C14" t="n">
-        <v>0.86796875</v>
+        <v>0.833203125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8656267267188238</v>
+        <v>0.8242579944913173</v>
       </c>
       <c r="E14" t="n">
         <v>2560</v>
